--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TIN: 07627112651</t>
   </si>
@@ -74,12 +74,6 @@
     <t>BILL TO:</t>
   </si>
   <si>
-    <t>Vendor Number: 252752</t>
-  </si>
-  <si>
-    <t>Seller Code: S9f330</t>
-  </si>
-  <si>
     <t>ANNEXURE</t>
   </si>
   <si>
@@ -114,6 +108,9 @@
   </si>
   <si>
     <t>{booking:remarks}</t>
+  </si>
+  <si>
+    <t>{meta:seller_code}</t>
   </si>
 </sst>
 </file>
@@ -182,15 +179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -244,28 +232,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -288,6 +254,43 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -307,83 +310,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +695,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -710,190 +713,188 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15" t="s">
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="C16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="G16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="26"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/anuj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>TIN: 07627112651</t>
   </si>
@@ -74,9 +74,6 @@
     <t>BILL TO:</t>
   </si>
   <si>
-    <t>ANNEXURE</t>
-  </si>
-  <si>
     <t>{meta:company_name}</t>
   </si>
   <si>
@@ -111,13 +108,34 @@
   </si>
   <si>
     <t>{meta:seller_code}</t>
+  </si>
+  <si>
+    <t>ANNEXURE - INSTALLATION &amp; DEMO</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Closed Date</t>
+  </si>
+  <si>
+    <t>{booking:closed_date}</t>
+  </si>
+  <si>
+    <t>{booking:booking_primary_contact_no}</t>
+  </si>
+  <si>
+    <t>{booking:name}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,6 +164,18 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -183,37 +213,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -295,11 +294,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -313,83 +351,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,212 +729,276 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="G16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="H16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="I16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="26"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait"/>
 </worksheet>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Detailed" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -731,15 +731,17 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +176,12 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -337,7 +343,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,12 +414,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,6 +422,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -731,7 +743,9 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -752,17 +766,17 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
@@ -789,7 +803,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
@@ -798,13 +812,13 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
@@ -813,13 +827,13 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
@@ -828,7 +842,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="18"/>
@@ -841,7 +855,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="18"/>
@@ -888,14 +902,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
         <v>19</v>
@@ -903,12 +917,12 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
         <v>26</v>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>TIN: 07627112651</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>{booking:name}</t>
+  </si>
+  <si>
+    <t>{booking:rating_stars}</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -146,35 +152,41 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -399,9 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -414,6 +423,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,17 +444,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -741,10 +753,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -753,32 +765,34 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="9" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="24" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -787,9 +801,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -800,10 +815,11 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
@@ -812,13 +828,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
@@ -827,13 +844,14 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
@@ -842,12 +860,13 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="24"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -855,12 +874,13 @@
       <c r="F8" s="10"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="24"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -869,9 +889,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -884,9 +905,10 @@
       <c r="I10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
@@ -899,37 +921,40 @@
       <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="27" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -938,38 +963,42 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
@@ -994,11 +1023,14 @@
       <c r="I16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1007,13 +1039,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
     <mergeCell ref="B12:G13"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait"/>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>TIN: 07627112651</t>
   </si>
@@ -129,13 +129,19 @@
   </si>
   <si>
     <t>{booking:name}</t>
+  </si>
+  <si>
+    <t>{booking:rating_stars}</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,35 +152,47 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -337,7 +355,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,9 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -408,10 +423,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,40 +753,46 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -771,9 +801,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -784,10 +815,11 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
@@ -796,13 +828,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
@@ -811,13 +844,14 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
@@ -826,12 +860,13 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="24"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -839,12 +874,13 @@
       <c r="F8" s="10"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="24"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -853,9 +889,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -868,9 +905,10 @@
       <c r="I10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
@@ -883,37 +921,40 @@
       <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="24" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -922,38 +963,42 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="21" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
@@ -978,11 +1023,14 @@
       <c r="I16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -991,13 +1039,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
     <mergeCell ref="B12:G13"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait"/>

--- a/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
+++ b/application/controllers/excel-templates/Partner_invoice_detail_template-v2.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16400" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -127,34 +143,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -162,7 +188,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,27 +204,39 @@
     </fill>
   </fills>
   <borders count="12">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -208,37 +246,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -248,134 +301,417 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.29"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -389,25 +725,25 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -417,14 +753,14 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -433,267 +769,279 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11">
+      <c r="K10" s="12"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13">
+      <c r="K12" s="12"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="18"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B12:H13"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>